--- a/Ch_7_Sentence_Modes/output/Ch_7_Mode_Nuc_Params_Tables_Graphs.xlsx
+++ b/Ch_7_Sentence_Modes/output/Ch_7_Mode_Nuc_Params_Tables_Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0EDAB3-134B-48DA-A28B-6C351042DE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A215BDC-910F-44F1-84B2-0DE2070EAFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Graphs" sheetId="7" r:id="rId3"/>
     <sheet name="Print" sheetId="4" r:id="rId4"/>
     <sheet name="Graph.Data" sheetId="5" r:id="rId5"/>
+    <sheet name="For Legends" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -43,6 +43,7 @@
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Summary Table'!$A$1:$AW$11</definedName>
@@ -1176,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1622,13 +1623,7 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,6 +1636,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1676,6 +1677,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4026,10 +4028,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE66101"/>
+      <color rgb="FF5E3C99"/>
       <color rgb="FFB2ABD2"/>
       <color rgb="FFFDB863"/>
-      <color rgb="FFE66101"/>
-      <color rgb="FF5E3C99"/>
       <color rgb="FF680000"/>
       <color rgb="FF7B3294"/>
       <color rgb="FFA6DBA0"/>
@@ -7332,7 +7334,7 @@
           <c:spPr>
             <a:ln w="38100">
               <a:solidFill>
-                <a:srgbClr val="E66101"/>
+                <a:srgbClr val="5E3C99"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -7341,7 +7343,7 @@
             <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="E66101"/>
+                <a:srgbClr val="5E3C99"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -7490,7 +7492,7 @@
           <c:spPr>
             <a:ln w="31750">
               <a:solidFill>
-                <a:srgbClr val="5E3C99"/>
+                <a:srgbClr val="E66101"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -7499,7 +7501,7 @@
             <c:size val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5E3C99"/>
+                <a:srgbClr val="E66101"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -7965,7 +7967,6 @@
         <c:axId val="950869344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="350"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8800,6 +8801,921 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE" sz="1400"/>
+              <a:t>Mean timing and F0 of L and H targets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph.Data!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MDQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="B2ABD2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Graph.Data!$B$31:$C$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>14.545999999999992</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50.896000000000015</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Graph.Data!$B$31:$C$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>14.545999999999992</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50.896000000000015</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="B2ABD2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Graph.Data!$B$32:$C$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>2.777000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.987000000000009</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Graph.Data!$B$32:$C$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>2.777000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.987000000000009</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="B2ABD2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graph.Data!$B$14:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>76.218999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graph.Data!$B$15:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>90.397999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.611000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8F78-4332-8DB7-00191F285AD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph.Data!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MDC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="5E3C99"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Graph.Data!$B$23:$C$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>12.091999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50.879999999999995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Graph.Data!$B$23:$C$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>12.091999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50.879999999999995</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="5E3C99"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Graph.Data!$B$24:$C$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>2.2800000000000011</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2049999999999983</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Graph.Data!$B$24:$C$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>2.2800000000000011</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.2049999999999983</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="5E3C99"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graph.Data!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>98.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320.14999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graph.Data!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>87.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.608999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F78-4332-8DB7-00191F285AD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="950869344"/>
+        <c:axId val="765174752"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Graph.Data!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MYN</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="38100">
+                    <a:solidFill>
+                      <a:srgbClr val="FDB863"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:errBars>
+                  <c:errDir val="x"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Graph.Data!$B$27:$C$27</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="2"/>
+                        <c:pt idx="0">
+                          <c:v>12.462999999999994</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>50.882999999999981</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Graph.Data!$B$27:$C$27</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="2"/>
+                        <c:pt idx="0">
+                          <c:v>12.462999999999994</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>50.882999999999981</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:srgbClr val="FFC000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:errBars>
+                <c:errBars>
+                  <c:errDir val="y"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Graph.Data!$B$28:$C$28</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="2"/>
+                        <c:pt idx="0">
+                          <c:v>2.355000000000004</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2.2330000000000041</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Graph.Data!$B$28:$C$28</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="2"/>
+                        <c:pt idx="0">
+                          <c:v>2.355000000000004</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2.2330000000000041</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:srgbClr val="FDB863"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:errBars>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Graph.Data!$B$10:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>95.582999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>316.13299999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Graph.Data!$B$11:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>89.155000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>93.457999999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8F78-4332-8DB7-00191F285AD2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Graph.Data!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MWH</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="31750">
+                    <a:solidFill>
+                      <a:srgbClr val="E66101"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:errBars>
+                  <c:errDir val="x"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Graph.Data!$B$19:$C$19</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="2"/>
+                        <c:pt idx="0">
+                          <c:v>11.719000000000008</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>50.879999999999995</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Graph.Data!$B$19:$C$19</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="2"/>
+                        <c:pt idx="0">
+                          <c:v>11.719000000000008</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>50.879999999999995</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:srgbClr val="E66101"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:errBars>
+                <c:errBars>
+                  <c:errDir val="y"/>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Graph.Data!$B$20:$C$20</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="2"/>
+                        <c:pt idx="0">
+                          <c:v>2.1619999999999919</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2.4769999999999897</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Graph.Data!$B$20:$C$20</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="2"/>
+                        <c:pt idx="0">
+                          <c:v>2.1619999999999919</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2.4769999999999897</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:srgbClr val="E66101"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:errBars>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Graph.Data!$B$6:$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>98.644000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>320.71100000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Graph.Data!$B$7:$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>87.522000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>92.010999999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8F78-4332-8DB7-00191F285AD2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="950869344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765174752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="765174752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F0 (ST re 1 Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950869344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16806860670194002"/>
+          <c:y val="0.13956029467805933"/>
+          <c:w val="0.21011080270702553"/>
+          <c:h val="0.1300966788215045"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -10169,6 +11085,159 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560118</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D4F0E8-77B3-4512-B860-BFB7D91AE892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Graphical user interface, application, table, Excel&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41CC198-D1E9-47E0-80BF-3A81ED41A980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="32495" t="45496" r="43977" b="6269"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6858001" y="476250"/>
+          <a:ext cx="1085849" cy="1334314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Graphical user interface, application, table, Excel&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A16707B-D91D-53F9-E142-838D715804BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="9966" t="34865" r="59036" b="32570"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8115301" y="476250"/>
+          <a:ext cx="1162049" cy="712767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -13526,57 +14595,57 @@
       <c r="B1" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169" t="s">
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="169"/>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="169"/>
-      <c r="AK1" s="169"/>
-      <c r="AL1" s="169"/>
-      <c r="AM1" s="169"/>
-      <c r="AN1" s="169"/>
-      <c r="AO1" s="169"/>
-      <c r="AP1" s="169"/>
-      <c r="AQ1" s="169"/>
-      <c r="AR1" s="169"/>
-      <c r="AS1" s="169"/>
-      <c r="AT1" s="169"/>
-      <c r="AU1" s="169"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="173"/>
+      <c r="AJ1" s="173"/>
+      <c r="AK1" s="173"/>
+      <c r="AL1" s="173"/>
+      <c r="AM1" s="173"/>
+      <c r="AN1" s="173"/>
+      <c r="AO1" s="173"/>
+      <c r="AP1" s="173"/>
+      <c r="AQ1" s="173"/>
+      <c r="AR1" s="173"/>
+      <c r="AS1" s="173"/>
+      <c r="AT1" s="173"/>
+      <c r="AU1" s="173"/>
       <c r="AV1" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="AW1" s="168"/>
+      <c r="AW1" s="167"/>
     </row>
     <row r="2" spans="1:49" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
@@ -13598,70 +14667,70 @@
         <f>Intercepts!A6</f>
         <v>MDQ</v>
       </c>
-      <c r="F2" s="170" t="str">
+      <c r="F2" s="168" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!$A$2,3), " vs ", RIGHT([7]LME_f0_exc_b1!$B$2,3))</f>
         <v>MDC vs MWH</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="170" t="str">
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="168" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!$A$3,3), " vs ", RIGHT([7]LME_f0_exc_b1!$B$3,3))</f>
         <v>MDC vs MYN</v>
       </c>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="170" t="str">
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="168" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!$A$4,3), " vs ", RIGHT([7]LME_f0_exc_b1!$B$4,3))</f>
         <v>MDC vs MDQ</v>
       </c>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="170" t="str">
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="168" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!$A$5,3), " vs ", RIGHT([7]LME_f0_exc_b1!$B$5,3))</f>
         <v>MWH vs MYN</v>
       </c>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="170" t="str">
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="168" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!$A$6,3), " vs ", RIGHT([7]LME_f0_exc_b1!$B$6,3))</f>
         <v>MWH vs MDQ</v>
       </c>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="171"/>
-      <c r="AK2" s="172"/>
-      <c r="AL2" s="172"/>
-      <c r="AM2" s="172"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="170" t="str">
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="170"/>
+      <c r="AL2" s="170"/>
+      <c r="AM2" s="170"/>
+      <c r="AN2" s="171"/>
+      <c r="AO2" s="168" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!$A$7,3), " vs ", RIGHT([7]LME_f0_exc_b1!$B$7,3))</f>
         <v>MYN vs MDQ</v>
       </c>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="171"/>
-      <c r="AR2" s="172"/>
-      <c r="AS2" s="172"/>
-      <c r="AT2" s="172"/>
-      <c r="AU2" s="173"/>
-      <c r="AV2" s="170" t="s">
+      <c r="AP2" s="169"/>
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="170"/>
+      <c r="AS2" s="170"/>
+      <c r="AT2" s="170"/>
+      <c r="AU2" s="171"/>
+      <c r="AV2" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="173"/>
+      <c r="AW2" s="171"/>
     </row>
     <row r="3" spans="1:49" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
@@ -15506,16 +16575,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:AU1"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="M2:S2"/>
     <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:AU1"/>
-    <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AH2:AN2"/>
   </mergeCells>
   <conditionalFormatting sqref="L3:L6 S4:S6 Z4:Z6 AG4:AG6 AN4:AN6 AU4:AU6 AU8:AU9 AN8:AN9 AG8:AG9 Z8:Z9 S8:S9 L8:L9">
     <cfRule type="cellIs" dxfId="49" priority="30" operator="lessThan">
@@ -15635,7 +16704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -16865,8 +17934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5255F7A-A6AF-457A-9C51-B5CF235E90D7}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17308,4 +18377,24 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF13EB7-87F1-47E3-864A-6E3951B0EF01}">
+  <dimension ref="K2"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K2" s="185"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Ch_7_Sentence_Modes/output/Ch_7_Mode_Nuc_Params_Tables_Graphs.xlsx
+++ b/Ch_7_Sentence_Modes/output/Ch_7_Mode_Nuc_Params_Tables_Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E4C8EA-2649-4E4B-8300-ADCCF28127DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE57F294-D804-42A3-B3B7-193083566607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14980" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-14980" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="3" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercepts" sheetId="1" r:id="rId1"/>
@@ -1441,16 +1441,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1465,16 +1471,10 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1482,142 +1482,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="136">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2696,6 +2560,40 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color rgb="FF333333"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -3260,6 +3158,108 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -12207,11 +12207,11 @@
     <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="100"/>
     <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="99"/>
     <tableColumn id="6" xr3:uid="{5E6CA2DC-274F-42F5-A8A5-390EFB24C110}" name="2.5% CI" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{EAC0DAFE-B91D-4C42-BDC9-4EF8ECE68B5F}" name="97.5% CI" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p. val." dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{EAC0DAFE-B91D-4C42-BDC9-4EF8ECE68B5F}" name="97.5% CI" dataDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p. val." dataDxfId="96">
       <calculatedColumnFormula>[3]LME_f0_exc_b0!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A298E49-C813-4E10-81DD-DFDD19936088}" name="p. val. adj." dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{2A298E49-C813-4E10-81DD-DFDD19936088}" name="p. val. adj." dataDxfId="95">
       <calculatedColumnFormula>[3]LME_f0_exc_b0!I2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12220,20 +12220,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:G6" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:G6" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="A2:G6" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="89">
       <calculatedColumnFormula>RIGHT([1]LME_l_t_b0!A2,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p. val." dataDxfId="87">
+    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p. val." dataDxfId="84">
       <calculatedColumnFormula>[1]LME_l_t_b0!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F9DC3D7D-5D08-472E-90A6-84DEB2535DEF}" name="p. val. adj." dataDxfId="86">
+    <tableColumn id="4" xr3:uid="{F9DC3D7D-5D08-472E-90A6-84DEB2535DEF}" name="p. val. adj." dataDxfId="83">
       <calculatedColumnFormula>[1]LME_l_t_b0!I2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12242,18 +12242,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A9:G13" totalsRowShown="0" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A9:G13" totalsRowShown="0" headerRowDxfId="82" dataDxfId="80" headerRowBorderDxfId="81" tableBorderDxfId="79" totalsRowBorderDxfId="78">
   <autoFilter ref="A9:G13" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p. val." dataDxfId="75">
+    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p. val." dataDxfId="72">
       <calculatedColumnFormula>[4]LME_h_t_b0!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAA21037-258C-486A-8624-D86C33B3EAD6}" name="p. val. adj." dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{BAA21037-258C-486A-8624-D86C33B3EAD6}" name="p. val. adj." dataDxfId="71">
       <calculatedColumnFormula>[4]LME_h_t_b0!I2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12262,20 +12262,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="Q9:W13" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="Q9:W13" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <autoFilter ref="Q9:W13" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="69">
+    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="65">
       <calculatedColumnFormula>RIGHT([6]LME_lh_slope_b0!A2,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{FF4061DC-ECCB-4575-BFAB-736ED74106BB}" name="2.5% CI" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{86574847-CC7E-41F3-9B86-76D99ED48F82}" name="97.5% CI" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p. val." dataDxfId="64">
+    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{FF4061DC-ECCB-4575-BFAB-736ED74106BB}" name="2.5% CI" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{86574847-CC7E-41F3-9B86-76D99ED48F82}" name="97.5% CI" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p. val." dataDxfId="60">
       <calculatedColumnFormula>[6]LME_lh_slope_b0!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FBA3233F-C3C7-4DA7-A8C9-62499D701BA6}" name="p. val. adj." dataDxfId="63">
+    <tableColumn id="4" xr3:uid="{FBA3233F-C3C7-4DA7-A8C9-62499D701BA6}" name="p. val. adj." dataDxfId="59">
       <calculatedColumnFormula>[6]LME_lh_slope_b0!I2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12284,13 +12284,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB22DC2D-4A9A-4641-A535-339435466AC6}" name="Table43" displayName="Table43" ref="E2:F6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB22DC2D-4A9A-4641-A535-339435466AC6}" name="Table43" displayName="Table43" ref="E2:F6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="E2:F6" xr:uid="{DB22DC2D-4A9A-4641-A535-339435466AC6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{93253625-9862-4152-A424-A7C8863A76A8}" name="Predictors" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{93253625-9862-4152-A424-A7C8863A76A8}" name="Predictors" dataDxfId="8">
       <calculatedColumnFormula>Intercepts!Q3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{82E88BB8-F7C5-4557-95AF-813BBB3EFE8C}" name="CI Delta" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{82E88BB8-F7C5-4557-95AF-813BBB3EFE8C}" name="CI Delta" dataDxfId="7">
       <calculatedColumnFormula>Intercepts!R3-Intercepts!T3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12299,13 +12299,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E033E9A7-7B14-4FAF-90E0-7B6F115AF5B0}" name="Table439" displayName="Table439" ref="E9:F13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E033E9A7-7B14-4FAF-90E0-7B6F115AF5B0}" name="Table439" displayName="Table439" ref="E9:F13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="E9:F13" xr:uid="{E033E9A7-7B14-4FAF-90E0-7B6F115AF5B0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EC83CC07-1D70-474E-BB1C-5466A91C6873}" name="Predictors" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{EC83CC07-1D70-474E-BB1C-5466A91C6873}" name="Predictors" dataDxfId="1">
       <calculatedColumnFormula>Intercepts!Q10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{11B02A35-F790-43F4-BA90-99234C6295BF}" name="CI Delta" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{11B02A35-F790-43F4-BA90-99234C6295BF}" name="CI Delta" dataDxfId="0">
       <calculatedColumnFormula>Intercepts!R10-Intercepts!T10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13931,7 +13931,7 @@
   </sheetPr>
   <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="62" zoomScaleNormal="70" zoomScaleSheetLayoutView="62" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="62" zoomScaleNormal="70" zoomScaleSheetLayoutView="62" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13962,66 +13962,66 @@
       <c r="A1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="154" t="s">
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="154"/>
-      <c r="AJ1" s="154"/>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="154"/>
-      <c r="AM1" s="154"/>
-      <c r="AN1" s="154"/>
-      <c r="AO1" s="154"/>
-      <c r="AP1" s="154"/>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="154"/>
-      <c r="AS1" s="154"/>
-      <c r="AT1" s="154"/>
-      <c r="AU1" s="154"/>
-      <c r="AV1" s="154"/>
-      <c r="AW1" s="154"/>
-      <c r="AX1" s="154"/>
-      <c r="AY1" s="154"/>
-      <c r="AZ1" s="154"/>
-      <c r="BA1" s="154"/>
-      <c r="BB1" s="151" t="s">
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
+      <c r="AG1" s="162"/>
+      <c r="AH1" s="162"/>
+      <c r="AI1" s="162"/>
+      <c r="AJ1" s="162"/>
+      <c r="AK1" s="162"/>
+      <c r="AL1" s="162"/>
+      <c r="AM1" s="162"/>
+      <c r="AN1" s="162"/>
+      <c r="AO1" s="162"/>
+      <c r="AP1" s="162"/>
+      <c r="AQ1" s="162"/>
+      <c r="AR1" s="162"/>
+      <c r="AS1" s="162"/>
+      <c r="AT1" s="162"/>
+      <c r="AU1" s="162"/>
+      <c r="AV1" s="162"/>
+      <c r="AW1" s="162"/>
+      <c r="AX1" s="162"/>
+      <c r="AY1" s="162"/>
+      <c r="AZ1" s="162"/>
+      <c r="BA1" s="162"/>
+      <c r="BB1" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="BC1" s="153"/>
+      <c r="BC1" s="156"/>
     </row>
     <row r="2" spans="1:55" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
@@ -14043,76 +14043,76 @@
         <f>Intercepts!A6</f>
         <v>MDQ</v>
       </c>
-      <c r="F2" s="155" t="str">
+      <c r="F2" s="157" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!A2,3), " vs ", RIGHT([7]LME_f0_exc_b1!B2,3))</f>
         <v>MDC vs MWH</v>
       </c>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="155" t="str">
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="157" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!A3,3), " vs ", RIGHT([7]LME_f0_exc_b1!B3,3))</f>
         <v>MDC vs MYN</v>
       </c>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="155" t="str">
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="157" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!A4,3), " vs ", RIGHT([7]LME_f0_exc_b1!B4,3))</f>
         <v>MDC vs MDQ</v>
       </c>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="155" t="str">
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="157" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!A5,3), " vs ", RIGHT([7]LME_f0_exc_b1!B5,3))</f>
         <v>MWH vs MYN</v>
       </c>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="157"/>
-      <c r="AI2" s="157"/>
-      <c r="AJ2" s="157"/>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="155" t="str">
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="159"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="159"/>
+      <c r="AJ2" s="159"/>
+      <c r="AK2" s="160"/>
+      <c r="AL2" s="157" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!A6,3), " vs ", RIGHT([7]LME_f0_exc_b1!B6,3))</f>
         <v>MWH vs MDQ</v>
       </c>
-      <c r="AM2" s="156"/>
-      <c r="AN2" s="156"/>
-      <c r="AO2" s="157"/>
-      <c r="AP2" s="157"/>
-      <c r="AQ2" s="157"/>
-      <c r="AR2" s="157"/>
-      <c r="AS2" s="158"/>
-      <c r="AT2" s="155" t="str">
+      <c r="AM2" s="158"/>
+      <c r="AN2" s="158"/>
+      <c r="AO2" s="159"/>
+      <c r="AP2" s="159"/>
+      <c r="AQ2" s="159"/>
+      <c r="AR2" s="159"/>
+      <c r="AS2" s="160"/>
+      <c r="AT2" s="157" t="str">
         <f>_xlfn.CONCAT(RIGHT([7]LME_f0_exc_b1!A7,3), " vs ", RIGHT([7]LME_f0_exc_b1!B7,3))</f>
         <v>MYN vs MDQ</v>
       </c>
-      <c r="AU2" s="156"/>
-      <c r="AV2" s="156"/>
-      <c r="AW2" s="157"/>
-      <c r="AX2" s="157"/>
-      <c r="AY2" s="157"/>
-      <c r="AZ2" s="157"/>
-      <c r="BA2" s="158"/>
-      <c r="BB2" s="155" t="s">
+      <c r="AU2" s="158"/>
+      <c r="AV2" s="158"/>
+      <c r="AW2" s="159"/>
+      <c r="AX2" s="159"/>
+      <c r="AY2" s="159"/>
+      <c r="AZ2" s="159"/>
+      <c r="BA2" s="160"/>
+      <c r="BB2" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="BC2" s="158"/>
+      <c r="BC2" s="160"/>
     </row>
     <row r="3" spans="1:55" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
@@ -14210,7 +14210,7 @@
         <f t="shared" si="2"/>
         <v>df</v>
       </c>
-      <c r="AB3" s="159" t="str">
+      <c r="AB3" s="151" t="str">
         <f t="shared" ref="AB3:AC3" si="3">L3</f>
         <v>p. val.</v>
       </c>
@@ -14242,7 +14242,7 @@
         <f t="shared" si="4"/>
         <v>df</v>
       </c>
-      <c r="AJ3" s="159" t="str">
+      <c r="AJ3" s="151" t="str">
         <f t="shared" si="4"/>
         <v>p. val.</v>
       </c>
@@ -14274,7 +14274,7 @@
         <f t="shared" si="6"/>
         <v>df</v>
       </c>
-      <c r="AR3" s="159" t="str">
+      <c r="AR3" s="151" t="str">
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
@@ -14306,7 +14306,7 @@
         <f t="shared" si="8"/>
         <v>df</v>
       </c>
-      <c r="AZ3" s="159" t="str">
+      <c r="AZ3" s="151" t="str">
         <f t="shared" si="8"/>
         <v>p. val.</v>
       </c>
@@ -14429,7 +14429,7 @@
         <f>[8]LME_l_f0_b1!H4</f>
         <v>9.9600000000000009</v>
       </c>
-      <c r="AB4" s="160">
+      <c r="AB4" s="152">
         <f>[8]LME_l_f0_b1!I4</f>
         <v>5.1971999999999999E-4</v>
       </c>
@@ -14461,7 +14461,7 @@
         <f>[8]LME_l_f0_b1!H5</f>
         <v>10</v>
       </c>
-      <c r="AJ4" s="160">
+      <c r="AJ4" s="152">
         <f>[8]LME_l_f0_b1!I5</f>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -14493,7 +14493,7 @@
         <f>[8]LME_l_f0_b1!H6</f>
         <v>10.039999999999999</v>
       </c>
-      <c r="AR4" s="160">
+      <c r="AR4" s="152">
         <f>[8]LME_l_f0_b1!I6</f>
         <v>4.4000000000000003E-3</v>
       </c>
@@ -14525,7 +14525,7 @@
         <f>[8]LME_l_f0_b1!H7</f>
         <v>10.050000000000001</v>
       </c>
-      <c r="AZ4" s="160">
+      <c r="AZ4" s="152">
         <f>[8]LME_l_f0_b1!I7</f>
         <v>7.3499999999999996E-2</v>
       </c>
@@ -14650,7 +14650,7 @@
         <f>[10]LME_h_f0_b1!H4</f>
         <v>10.07</v>
       </c>
-      <c r="AB5" s="161">
+      <c r="AB5" s="153">
         <f>[10]LME_h_f0_b1!I4</f>
         <v>2.4453000000000001E-5</v>
       </c>
@@ -14682,7 +14682,7 @@
         <f>[10]LME_h_f0_b1!H5</f>
         <v>9.91</v>
       </c>
-      <c r="AJ5" s="161">
+      <c r="AJ5" s="153">
         <f>[10]LME_h_f0_b1!I5</f>
         <v>1.18E-2</v>
       </c>
@@ -14714,7 +14714,7 @@
         <f>[10]LME_h_f0_b1!H6</f>
         <v>10.050000000000001</v>
       </c>
-      <c r="AR5" s="161">
+      <c r="AR5" s="153">
         <f>[10]LME_h_f0_b1!I6</f>
         <v>5.3872000000000002E-4</v>
       </c>
@@ -14746,7 +14746,7 @@
         <f>[10]LME_h_f0_b1!H7</f>
         <v>10.08</v>
       </c>
-      <c r="AZ5" s="161">
+      <c r="AZ5" s="153">
         <f>[10]LME_h_f0_b1!I7</f>
         <v>2.7000000000000001E-3</v>
       </c>
@@ -14871,7 +14871,7 @@
         <f>[7]LME_f0_exc_b1!H4</f>
         <v>9.26</v>
       </c>
-      <c r="AB6" s="161">
+      <c r="AB6" s="153">
         <f>[7]LME_f0_exc_b1!I4</f>
         <v>1.9E-3</v>
       </c>
@@ -14903,7 +14903,7 @@
         <f>[7]LME_f0_exc_b1!H5</f>
         <v>9.9700000000000006</v>
       </c>
-      <c r="AJ6" s="161">
+      <c r="AJ6" s="153">
         <f>[7]LME_f0_exc_b1!I5</f>
         <v>0.68430000000000002</v>
       </c>
@@ -14935,7 +14935,7 @@
         <f>[7]LME_f0_exc_b1!H6</f>
         <v>9.7200000000000006</v>
       </c>
-      <c r="AR6" s="161">
+      <c r="AR6" s="153">
         <f>[7]LME_f0_exc_b1!I6</f>
         <v>1.4E-2</v>
       </c>
@@ -14967,7 +14967,7 @@
         <f>[7]LME_f0_exc_b1!H7</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="AZ6" s="161">
+      <c r="AZ6" s="153">
         <f>[7]LME_f0_exc_b1!I7</f>
         <v>2.5085999999999999E-4</v>
       </c>
@@ -15088,7 +15088,7 @@
         <f t="shared" ref="AA7:AC7" si="15">AA3</f>
         <v>df</v>
       </c>
-      <c r="AB7" s="159" t="str">
+      <c r="AB7" s="151" t="str">
         <f t="shared" si="15"/>
         <v>p. val.</v>
       </c>
@@ -15120,7 +15120,7 @@
         <f t="shared" ref="AI7:AJ7" si="17">AI3</f>
         <v>df</v>
       </c>
-      <c r="AJ7" s="159" t="str">
+      <c r="AJ7" s="151" t="str">
         <f t="shared" si="17"/>
         <v>p. val.</v>
       </c>
@@ -15152,7 +15152,7 @@
         <f t="shared" ref="AQ7:AR7" si="19">AQ3</f>
         <v>df</v>
       </c>
-      <c r="AR7" s="159" t="str">
+      <c r="AR7" s="151" t="str">
         <f t="shared" si="19"/>
         <v>p. val.</v>
       </c>
@@ -15184,7 +15184,7 @@
         <f t="shared" ref="AY7:AZ7" si="21">AY3</f>
         <v>df</v>
       </c>
-      <c r="AZ7" s="159" t="str">
+      <c r="AZ7" s="151" t="str">
         <f t="shared" si="21"/>
         <v>p. val.</v>
       </c>
@@ -15307,7 +15307,7 @@
         <f>[13]LME_l_t_b1!H4</f>
         <v>9.91</v>
       </c>
-      <c r="AB8" s="162">
+      <c r="AB8" s="154">
         <f>[13]LME_l_t_b1!I4</f>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -15339,7 +15339,7 @@
         <f>[13]LME_l_t_b1!H5</f>
         <v>10.08</v>
       </c>
-      <c r="AJ8" s="162">
+      <c r="AJ8" s="154">
         <f>[13]LME_l_t_b1!I5</f>
         <v>0.47210000000000002</v>
       </c>
@@ -15371,7 +15371,7 @@
         <f>[13]LME_l_t_b1!H6</f>
         <v>9.6300000000000008</v>
       </c>
-      <c r="AR8" s="162">
+      <c r="AR8" s="154">
         <f>[13]LME_l_t_b1!I6</f>
         <v>3.5876000000000001E-4</v>
       </c>
@@ -15403,7 +15403,7 @@
         <f>[13]LME_l_t_b1!H7</f>
         <v>9.99</v>
       </c>
-      <c r="AZ8" s="162">
+      <c r="AZ8" s="154">
         <f>[13]LME_l_t_b1!I7</f>
         <v>4.7000000000000002E-3</v>
       </c>
@@ -15528,7 +15528,7 @@
         <f>[15]LME_h_t_b1!H4</f>
         <v>622.12</v>
       </c>
-      <c r="AB9" s="161">
+      <c r="AB9" s="153">
         <f>[15]LME_h_t_b1!I4</f>
         <v>6.4190000000000003E-10</v>
       </c>
@@ -15560,7 +15560,7 @@
         <f>[15]LME_h_t_b1!H5</f>
         <v>622.08000000000004</v>
       </c>
-      <c r="AJ9" s="161">
+      <c r="AJ9" s="153">
         <f>[15]LME_h_t_b1!I5</f>
         <v>0.13769999999999999</v>
       </c>
@@ -15592,7 +15592,7 @@
         <f>[15]LME_h_t_b1!H6</f>
         <v>622.25</v>
       </c>
-      <c r="AR9" s="161">
+      <c r="AR9" s="153">
         <f>[15]LME_h_t_b1!I6</f>
         <v>2.9116999999999999E-10</v>
       </c>
@@ -15624,7 +15624,7 @@
         <f>[15]LME_h_t_b1!H7</f>
         <v>622.1</v>
       </c>
-      <c r="AZ9" s="161">
+      <c r="AZ9" s="153">
         <f>[15]LME_h_t_b1!I7</f>
         <v>7.8426999999999997E-7</v>
       </c>
@@ -15745,7 +15745,7 @@
         <f t="shared" ref="AA10:AC10" si="27">AA3</f>
         <v>df</v>
       </c>
-      <c r="AB10" s="159" t="str">
+      <c r="AB10" s="151" t="str">
         <f t="shared" si="27"/>
         <v>p. val.</v>
       </c>
@@ -15777,7 +15777,7 @@
         <f t="shared" ref="AI10:AJ10" si="29">AI3</f>
         <v>df</v>
       </c>
-      <c r="AJ10" s="159" t="str">
+      <c r="AJ10" s="151" t="str">
         <f t="shared" si="29"/>
         <v>p. val.</v>
       </c>
@@ -15809,7 +15809,7 @@
         <f t="shared" ref="AQ10:AR10" si="31">AQ3</f>
         <v>df</v>
       </c>
-      <c r="AR10" s="159" t="str">
+      <c r="AR10" s="151" t="str">
         <f t="shared" si="31"/>
         <v>p. val.</v>
       </c>
@@ -15841,7 +15841,7 @@
         <f t="shared" ref="AY10:AZ10" si="33">AY3</f>
         <v>df</v>
       </c>
-      <c r="AZ10" s="159" t="str">
+      <c r="AZ10" s="151" t="str">
         <f t="shared" si="33"/>
         <v>p. val.</v>
       </c>
@@ -15964,7 +15964,7 @@
         <f>[17]LME_lh_slope_b1!H4</f>
         <v>8.98</v>
       </c>
-      <c r="AB11" s="161">
+      <c r="AB11" s="153">
         <f>[17]LME_lh_slope_b1!I4</f>
         <v>1.6999999999999999E-3</v>
       </c>
@@ -15996,7 +15996,7 @@
         <f>[17]LME_lh_slope_b1!H5</f>
         <v>9.9700000000000006</v>
       </c>
-      <c r="AJ11" s="161">
+      <c r="AJ11" s="153">
         <f>[17]LME_lh_slope_b1!I5</f>
         <v>0.77939999999999998</v>
       </c>
@@ -16028,7 +16028,7 @@
         <f>[17]LME_lh_slope_b1!H6</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="AR11" s="161">
+      <c r="AR11" s="153">
         <f>[17]LME_lh_slope_b1!I6</f>
         <v>1.32E-2</v>
       </c>
@@ -16060,7 +16060,7 @@
         <f>[17]LME_lh_slope_b1!H7</f>
         <v>9.49</v>
       </c>
-      <c r="AZ11" s="161">
+      <c r="AZ11" s="153">
         <f>[17]LME_lh_slope_b1!I7</f>
         <v>1.1000000000000001E-3</v>
       </c>
@@ -16107,183 +16107,183 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:BA1"/>
+    <mergeCell ref="AD2:AK2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="AL2:AS2"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="F2:M2"/>
     <mergeCell ref="BB2:BC2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:AC2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:BA1"/>
-    <mergeCell ref="AD2:AK2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="AL2:AS2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M6 U4:U6 AC4:AC6 AK4:AK6 AS4:AS6 BA4:BA6 BA8:BA9 AS8:AS9 AK8:AK9 AC8:AC9 U8:U9 M8:M9">
-    <cfRule type="cellIs" dxfId="62" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="48" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="56" priority="48" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7 U7 AC7 AK7 AS7 BA7">
-    <cfRule type="cellIs" dxfId="59" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="40" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="41" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="42" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="53" priority="42" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",M7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10 U10 AC10 AK10 AS10 BA10">
-    <cfRule type="cellIs" dxfId="56" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="37" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="38" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="39" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="50" priority="39" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",M10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA11 AS11 AK11 AC11 U11 M11">
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="34" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="35" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="36" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="47" priority="36" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:BA23">
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="33" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="49" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="30" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="31" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="32" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="43" priority="32" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",U3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="46" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="27" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="28" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",AC3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK3">
-    <cfRule type="cellIs" dxfId="43" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="37" priority="26" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",AK3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3">
-    <cfRule type="cellIs" dxfId="40" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="22" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",AS3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA3">
-    <cfRule type="cellIs" dxfId="37" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="20" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",BA3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U11 AC4:AC11 AK4:AK11 AS4:AS11 BA4:BA11">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="lessThanOrEqual">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ4:AZ6 AZ8:AZ9 AR4:AR6 AR8:AR9 AJ4:AJ6 AJ8:AJ9 AB4:AB6 AB8:AB9 T4:T6 T8:T9">
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="16" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",T4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ7 AR7 AJ7 AB7 T7">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="13" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",T7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ10 AR10 AJ10 AB10 T10">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",T10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ11 AR11 AJ11 AB11 T11">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",T11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ3 AR3 AJ3 AB3 T3">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ4:AZ11 AR4:AR11 AJ4:AJ11 AB4:AB11 T4:T11">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThanOrEqual">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16296,7 +16296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="J38:M39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -16341,7 +16341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5255F7A-A6AF-457A-9C51-B5CF235E90D7}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Ch_7_Sentence_Modes/output/Ch_7_Mode_Nuc_Params_Tables_Graphs.xlsx
+++ b/Ch_7_Sentence_Modes/output/Ch_7_Mode_Nuc_Params_Tables_Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F279CC9F-F783-4D45-86D7-6EF58D659845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799FB81-7852-4D28-9C3B-1D86454D8942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13110" yWindow="-14980" windowWidth="17340" windowHeight="9250" activeTab="1" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercepts" sheetId="1" r:id="rId1"/>
@@ -5328,10 +5328,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF7570B3"/>
       <color rgb="FFE7298A"/>
       <color rgb="FF1B9E77"/>
       <color rgb="FFD95F02"/>
-      <color rgb="FF7570B3"/>
       <color rgb="FFE66101"/>
       <color rgb="FF5E3C99"/>
       <color rgb="FFB2ABD2"/>
@@ -6025,11 +6025,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1260" b="0"/>
+              <a:defRPr sz="1250" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IE" sz="1260" b="0"/>
-              <a:t>Mean timing and F0 of L and H targets</a:t>
+              <a:rPr lang="en-IE" sz="1250" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Mean Timing and F0 of L and H targets by Mode</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE" sz="1250">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1250" b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE" sz="1000"/>
+              <a:t>excluding fixed and random effectrs of acc_phon</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6066,7 +6080,7 @@
           <c:spPr>
             <a:ln w="38100">
               <a:solidFill>
-                <a:srgbClr val="5E3C99"/>
+                <a:srgbClr val="7570B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -6075,7 +6089,7 @@
             <c:size val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5E3C99"/>
+                <a:srgbClr val="7570B3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -6086,18 +6100,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="1"/>
-            <c:marker>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="7570B3"/>
-                </a:solidFill>
-                <a:ln w="19050">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="38100">
@@ -6735,7 +6737,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6749,10 +6753,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0"/>
+                  <a:defRPr sz="1050" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1050" b="0"/>
+                  <a:rPr lang="en-US" sz="1050" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
@@ -6767,9 +6785,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -6779,7 +6795,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050"/>
+              <a:defRPr sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6800,7 +6823,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6814,10 +6839,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="0"/>
+                  <a:defRPr sz="1050" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1050" b="0"/>
+                  <a:rPr lang="en-US" sz="1050" b="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>F0 (ST re 1 Hz)</a:t>
                 </a:r>
               </a:p>
@@ -6832,9 +6871,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -6844,7 +6881,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050"/>
+              <a:defRPr sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6854,10 +6898,9 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
+        <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:plotArea>
@@ -6880,7 +6923,9 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -6891,9 +6936,7 @@
   </c:chart>
   <c:spPr>
     <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="tx1"/>
-      </a:solidFill>
+      <a:noFill/>
     </a:ln>
   </c:spPr>
   <c:txPr>
@@ -9787,16 +9830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>274551</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>557579</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>422851</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>96279</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>47244</xdr:rowOff>
+      <xdr:rowOff>156101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11639,7 +11682,7 @@
       <sheetName val="LME_lh_slope_b0"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="A2" t="str">
             <v>modeMDC</v>
@@ -13612,7 +13655,7 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="400" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="400" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -13758,7 +13801,7 @@
         <v>55</v>
       </c>
       <c r="K3" s="96" t="str">
-        <f t="shared" ref="J3:Q3" si="0">C3</f>
+        <f t="shared" ref="K3:Q3" si="0">C3</f>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="L3" s="97" t="str">
@@ -17762,8 +17805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="J38:M39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
